--- a/Employment/Employment Status.xlsx
+++ b/Employment/Employment Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\2024-Summer\Employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803741AF-14D5-4822-8349-608D364B546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C14739-AA5E-420C-A1CB-6A9A5C1B6F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
   </bookViews>
@@ -36,8 +36,90 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="7">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="7">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Draper</t>
   </si>
@@ -184,6 +266,66 @@
   </si>
   <si>
     <t>https://jobs.lever.co/ltaresearch/3d95a27b-6183-42cc-a03c-23eea97461ad/apply?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>Guidance Navigation and Control Engineer (671543BR)</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartinjobs.com/job/huntsville/guidance-navigation-and-control-engineer/694/67985288720</t>
+  </si>
+  <si>
+    <t>Rnqhstjr12%</t>
+  </si>
+  <si>
+    <t>Guidance Navigation and Control Engineer (671541BR)</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartinjobs.com/job/huntsville/guidance-navigation-and-control-engineer/694/67985285744</t>
+  </si>
+  <si>
+    <t>Guidance Navigation and Control Engineer (671546BR)</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartinjobs.com/job/huntsville/guidance-navigation-and-control-engineer/694/67979830944</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>Guidance Navigation and Control Engineer(00000435707)</t>
+  </si>
+  <si>
+    <t>https://jobs.boeing.com/job/saint-charles/guidance-navigation-and-control-engineer/185/68678951392</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/relativity/jobs/7060327002?gh_jid=7060327002</t>
+  </si>
+  <si>
+    <t>Relativity Space</t>
+  </si>
+  <si>
+    <t>Software Simulation Engineer I</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/spacex/jobs/7560266002?gh_jid=7560266002</t>
+  </si>
+  <si>
+    <t>GNC Engineer (Falcon)</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/spacex/jobs/7550544002?gh_jid=7550544002</t>
+  </si>
+  <si>
+    <t>GNC Engineer (Starship) Hawthorn, CA</t>
+  </si>
+  <si>
+    <t>GNC Engineer (Starship) Starbase, TX</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/spacex/jobs/7535388002?gh_jid=7535388002</t>
   </si>
 </sst>
 </file>
@@ -248,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -256,9 +398,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -275,6 +418,100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248182B-F338-4D88-B5BE-882C43BCF2CB}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +825,7 @@
     <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -602,119 +839,111 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" s="2"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45517</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45517</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45517</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="8">
@@ -724,8 +953,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="8">
@@ -736,114 +965,174 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B32"/>
+      <c r="C32" s="2"/>
+      <c r="D32"/>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="8">
         <v>45467</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="2">
         <v>45467</v>
       </c>
       <c r="D36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="8">
         <v>45467</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45517</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45517</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45517</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H43" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45517</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45517</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D41" r:id="rId1" xr:uid="{C7F5CDCC-C64C-463C-926C-91C73641CC7B}"/>
+    <hyperlink ref="D42" r:id="rId2" xr:uid="{CE96B0B7-8DFE-4394-8492-12CA15B1D22A}"/>
+    <hyperlink ref="D47" r:id="rId3" xr:uid="{31996B9E-E760-4085-8FEA-64804E616A43}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Employment/Employment Status.xlsx
+++ b/Employment/Employment Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\2024-Summer\Employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C14739-AA5E-420C-A1CB-6A9A5C1B6F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D723C45-A68F-4313-BA7C-FEF011210B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="7">
+  <futureMetadata name="XLRICHVALUE" count="11">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -91,8 +91,36 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="7">
+  <valueMetadata count="11">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -113,13 +141,25 @@
     </bk>
     <bk>
       <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Draper</t>
   </si>
@@ -326,6 +366,15 @@
   </si>
   <si>
     <t>https://boards.greenhouse.io/spacex/jobs/7535388002?gh_jid=7535388002</t>
+  </si>
+  <si>
+    <t>RocketLab</t>
+  </si>
+  <si>
+    <t>https://www.rocketlabusa.com/careers/positions/gnc-engineer-i-long-beach-california-united-states-6093058003/</t>
+  </si>
+  <si>
+    <t>GNC Engineer I (4998098003)</t>
   </si>
 </sst>
 </file>
@@ -461,7 +510,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -490,6 +539,22 @@
     <v>6</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -511,6 +576,10 @@
   <rel r:id="rId5"/>
   <rel r:id="rId6"/>
   <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
 </richValueRels>
 </file>
 
@@ -813,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248182B-F338-4D88-B5BE-882C43BCF2CB}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,8 +933,24 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45526</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
@@ -894,7 +979,7 @@
       <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="e" vm="1">
+      <c r="F13" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -908,6 +993,9 @@
       <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="F14" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -919,6 +1007,9 @@
       <c r="D15" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="F15" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
@@ -1054,7 +1145,7 @@
       <c r="E41" t="s">
         <v>52</v>
       </c>
-      <c r="G41" t="e" vm="2">
+      <c r="G41" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1068,10 +1159,10 @@
       <c r="D42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F42" t="e" vm="3">
+      <c r="F42" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="G42" t="e" vm="4">
+      <c r="G42" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1085,15 +1176,15 @@
       <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="F43" t="e" vm="5">
+      <c r="F43" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="H43" t="e" vm="6">
+      <c r="H43" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="e" vm="7">
+      <c r="H44" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
     </row>

--- a/Employment/Employment Status.xlsx
+++ b/Employment/Employment Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\2024-Summer\Employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D723C45-A68F-4313-BA7C-FEF011210B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23F400E-4140-4CB6-B569-346E6479F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="8205" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jan Full Time" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="11">
+  <futureMetadata name="XLRICHVALUE" count="17">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -119,8 +119,50 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="11">
+  <valueMetadata count="17">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -153,13 +195,31 @@
     </bk>
     <bk>
       <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Draper</t>
   </si>
@@ -375,6 +435,27 @@
   </si>
   <si>
     <t>GNC Engineer I (4998098003)</t>
+  </si>
+  <si>
+    <t>GNC Engineer I/II (4987492003) Long Beach, CA</t>
+  </si>
+  <si>
+    <t>https://www.rocketlabusa.com/careers/positions/gnc-engineer-iii-long-beach-california-united-states-6066786003/</t>
+  </si>
+  <si>
+    <t>GNC Engineer I/II (4987492003) Littleton, CO</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/rocketlab/jobs/6080152003</t>
+  </si>
+  <si>
+    <t>Skyrse</t>
+  </si>
+  <si>
+    <t>Guidance, Navigation and Control Engineer</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/skyryse/jobs/5655948?gh_src=f6fbc62e1us&amp;source=LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -510,7 +591,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="17">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -553,6 +634,30 @@
   </rv>
   <rv s="0">
     <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -580,6 +685,12 @@
   <rel r:id="rId9"/>
   <rel r:id="rId10"/>
   <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
 </richValueRels>
 </file>
 
@@ -882,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248182B-F338-4D88-B5BE-882C43BCF2CB}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,12 +1064,38 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45526</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="7"/>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45528</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -979,7 +1116,7 @@
       <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="e" vm="3">
+      <c r="F13" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -993,7 +1130,7 @@
       <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F14" t="e" vm="4">
+      <c r="F14" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1007,7 +1144,7 @@
       <c r="D15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F15" t="e" vm="5">
+      <c r="F15" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1015,22 +1152,38 @@
       <c r="C16" s="2"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45528</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1044,7 +1197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
@@ -1055,31 +1208,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="32" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1145,7 +1298,7 @@
       <c r="E41" t="s">
         <v>52</v>
       </c>
-      <c r="G41" t="e" vm="6">
+      <c r="G41" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1159,10 +1312,10 @@
       <c r="D42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F42" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" t="e" vm="8">
+      <c r="F42" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1176,15 +1329,15 @@
       <c r="D43" t="s">
         <v>56</v>
       </c>
-      <c r="F43" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" t="e" vm="10">
+      <c r="F43" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H43" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="e" vm="11">
+      <c r="H44" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1221,9 +1374,10 @@
     <hyperlink ref="D41" r:id="rId1" xr:uid="{C7F5CDCC-C64C-463C-926C-91C73641CC7B}"/>
     <hyperlink ref="D42" r:id="rId2" xr:uid="{CE96B0B7-8DFE-4394-8492-12CA15B1D22A}"/>
     <hyperlink ref="D47" r:id="rId3" xr:uid="{31996B9E-E760-4085-8FEA-64804E616A43}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{C59943BB-A2E6-4053-BCEE-142A6DBE3A7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Employment/Employment Status.xlsx
+++ b/Employment/Employment Status.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\2024-Summer\Employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23F400E-4140-4CB6-B569-346E6479F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7340D89-EFED-4E1C-9FF0-537BC58C1388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="8205" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jan Full Time" sheetId="2" r:id="rId1"/>
     <sheet name="Spring2024 Career Fair" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="17">
+  <futureMetadata name="XLRICHVALUE" count="42">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -161,8 +162,183 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="34"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="37"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="38"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="40"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="41"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="17">
+  <valueMetadata count="42">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -213,13 +389,88 @@
     </bk>
     <bk>
       <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
+    </bk>
+    <bk>
+      <rc t="1" v="25"/>
+    </bk>
+    <bk>
+      <rc t="1" v="26"/>
+    </bk>
+    <bk>
+      <rc t="1" v="27"/>
+    </bk>
+    <bk>
+      <rc t="1" v="28"/>
+    </bk>
+    <bk>
+      <rc t="1" v="29"/>
+    </bk>
+    <bk>
+      <rc t="1" v="30"/>
+    </bk>
+    <bk>
+      <rc t="1" v="31"/>
+    </bk>
+    <bk>
+      <rc t="1" v="32"/>
+    </bk>
+    <bk>
+      <rc t="1" v="33"/>
+    </bk>
+    <bk>
+      <rc t="1" v="34"/>
+    </bk>
+    <bk>
+      <rc t="1" v="35"/>
+    </bk>
+    <bk>
+      <rc t="1" v="36"/>
+    </bk>
+    <bk>
+      <rc t="1" v="37"/>
+    </bk>
+    <bk>
+      <rc t="1" v="38"/>
+    </bk>
+    <bk>
+      <rc t="1" v="39"/>
+    </bk>
+    <bk>
+      <rc t="1" v="40"/>
+    </bk>
+    <bk>
+      <rc t="1" v="41"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
   <si>
     <t>Draper</t>
   </si>
@@ -377,9 +628,6 @@
     <t>https://www.lockheedmartinjobs.com/job/huntsville/guidance-navigation-and-control-engineer/694/67985288720</t>
   </si>
   <si>
-    <t>Rnqhstjr12%</t>
-  </si>
-  <si>
     <t>Guidance Navigation and Control Engineer (671541BR)</t>
   </si>
   <si>
@@ -456,6 +704,90 @@
   </si>
   <si>
     <t>https://boards.greenhouse.io/skyryse/jobs/5655948?gh_src=f6fbc62e1us&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Space &amp; Missile Guidance &amp; Control Engineer (JR000144)</t>
+  </si>
+  <si>
+    <t>https://draper.wd5.myworkdayjobs.com/en-US/Draper_Careers/job/Space---Missile-Guidance---Control-Engineer_JR000144</t>
+  </si>
+  <si>
+    <t>(Early Career) Guidance, Navigation &amp; Controls Engineer I - Intern Conversion</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>https://blueorigin.wd5.myworkdayjobs.com/en-US/BlueOrigin/job/XMLNAME--Early-Career--Guidance--Navigation---Controls-Engineer-I---Intern-Conversion_R45966</t>
+  </si>
+  <si>
+    <t>GNC ENGINEER (STARSHIELD) Hawthron, CA</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/spacex/jobs/7313831002?gh_jid=7313831002&amp;gh_src=3c0864192&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Mach Industries</t>
+  </si>
+  <si>
+    <t>GNC Engineer</t>
+  </si>
+  <si>
+    <t>https://jobs.ashbyhq.com/mach/33f87be5-ac47-4d0e-a353-ec899fb4dee6?utm_source=4w2KJ76qkG</t>
+  </si>
+  <si>
+    <t>Guidance, Navigation, Controls (GNC) Engineer (Remote)</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>https://tsc.wd12.myworkdayjobs.com/en-US/TSC-Careers/job/Guidance--Navigation--Controls--GNC--Engineer_JR1698</t>
+  </si>
+  <si>
+    <t>Piper Companies</t>
+  </si>
+  <si>
+    <t>GNC Software Engineer (Guidance, Navigation and Control)</t>
+  </si>
+  <si>
+    <t>https://careers.zpgroup.com/details/112748/gnc_software_engineer_guidance_navigation_and_control</t>
+  </si>
+  <si>
+    <t>Guidance, Navigation, and Control (GNC) Engineer</t>
+  </si>
+  <si>
+    <t>Logic Hire Software Services LTD</t>
+  </si>
+  <si>
+    <t>https://www.logichire-ss.com/</t>
+  </si>
+  <si>
+    <t>https://draper.wd5.myworkdayjobs.com/en-US/Draper_Careers/job/Houston-TX/Guidance--Navigation---Control-Engineer_JR000369?q=GNC&amp;jobFamilyGroup=b9bd15164d241000c3f13e0445530002&amp;workerSubType=b9bd15164d241000cf98583fe2350000</t>
+  </si>
+  <si>
+    <t>Guidance Navigation and Control Engineer -Dallas, TX (673784BR)</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartinjobs.com/job/orlando/guidance-navigation-and-control-engineer-early-career-orlando-fl/694/69248423072</t>
+  </si>
+  <si>
+    <t>Guidance, Navigation &amp; Control Engineer - Early Career - Orlando, FL (673768BR)</t>
+  </si>
+  <si>
+    <t>Guidance, Navigation &amp; Control Engineer(JR000369)</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartinjobs.com/job/grand-prairie/guidance-navigation-and-control-engineer-dallas-tx/694/69556349808</t>
+  </si>
+  <si>
+    <t>APL</t>
+  </si>
+  <si>
+    <t>2025 Graduate - Guidance, Navigation, and Control Systems Engineer</t>
+  </si>
+  <si>
+    <t>https://careers.jhuapl.edu/jobs/55813?lang=en-us</t>
   </si>
 </sst>
 </file>
@@ -591,7 +923,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="17">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="42">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -658,6 +990,106 @@
   </rv>
   <rv s="0">
     <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>23</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>24</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>25</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>26</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>27</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>28</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>29</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>30</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>31</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>32</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>33</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>34</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>35</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>36</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>37</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>38</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>39</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>40</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>41</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -691,6 +1123,31 @@
   <rel r:id="rId15"/>
   <rel r:id="rId16"/>
   <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
+  <rel r:id="rId23"/>
+  <rel r:id="rId24"/>
+  <rel r:id="rId25"/>
+  <rel r:id="rId26"/>
+  <rel r:id="rId27"/>
+  <rel r:id="rId28"/>
+  <rel r:id="rId29"/>
+  <rel r:id="rId30"/>
+  <rel r:id="rId31"/>
+  <rel r:id="rId32"/>
+  <rel r:id="rId33"/>
+  <rel r:id="rId34"/>
+  <rel r:id="rId35"/>
+  <rel r:id="rId36"/>
+  <rel r:id="rId37"/>
+  <rel r:id="rId38"/>
+  <rel r:id="rId39"/>
+  <rel r:id="rId40"/>
+  <rel r:id="rId41"/>
+  <rel r:id="rId42"/>
 </richValueRels>
 </file>
 
@@ -991,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248182B-F338-4D88-B5BE-882C43BCF2CB}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1462,7 @@
     <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1019,160 +1476,216 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45544</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="2"/>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45544</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2">
         <v>45526</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E7" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2">
         <v>45526</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>73</v>
-      </c>
-      <c r="E8" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>74</v>
       </c>
       <c r="C9" s="2">
         <v>45528</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E9" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2">
         <v>45517</v>
       </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="8">
+        <v>45517</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="6" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="8">
         <v>45517</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2">
-        <v>45517</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="7"/>
+      <c r="F15" s="6" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="8">
+        <v>45528</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="2">
-        <v>45528</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" t="e" vm="11">
+      <c r="E18" s="6" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="6" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1240,7 +1753,7 @@
       <c r="C32" s="2"/>
       <c r="D32"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>40</v>
       </c>
@@ -1254,7 +1767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1268,7 +1781,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
@@ -1282,7 +1795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1295,78 +1808,227 @@
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>52</v>
-      </c>
-      <c r="G41" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>53</v>
       </c>
       <c r="C42" s="2">
         <v>45517</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G42" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>54</v>
-      </c>
-      <c r="F42" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>55</v>
       </c>
       <c r="C43" s="2">
         <v>45517</v>
       </c>
       <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H43" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45544</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G44" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="8">
+        <v>45544</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="6" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G45" s="6" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F43" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="8">
+        <v>45517</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="2">
+    </row>
+    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="8">
         <v>45517</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="2">
-        <v>45517</v>
-      </c>
-      <c r="D49" t="s">
-        <v>60</v>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" t="e" vm="32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G56" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" t="e" vm="38">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45546</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" t="e" vm="42">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -1375,9 +2037,18 @@
     <hyperlink ref="D42" r:id="rId2" xr:uid="{CE96B0B7-8DFE-4394-8492-12CA15B1D22A}"/>
     <hyperlink ref="D47" r:id="rId3" xr:uid="{31996B9E-E760-4085-8FEA-64804E616A43}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{C59943BB-A2E6-4053-BCEE-142A6DBE3A7E}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{DB64D443-10B8-46FA-B8CB-D1CF7F5DB24E}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{CE4B082C-A4F9-4EC8-92C6-5B3B58D15D7D}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{98DC00AA-2DBF-4AB0-83C5-8938EBF19C50}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{DBF32F9C-3098-4106-81D7-F7F4AE95CD51}"/>
+    <hyperlink ref="D5" r:id="rId9" xr:uid="{3AE475AC-4286-4745-9EAF-66C06CB98367}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{2299E3F8-F746-405E-9F2B-B74FE02EBD80}"/>
+    <hyperlink ref="D44" r:id="rId11" xr:uid="{860FE466-DF1A-4228-A836-44D325A75554}"/>
+    <hyperlink ref="D2" r:id="rId12" xr:uid="{0715E8F6-27C8-452E-B9D3-DFFB97A15B4A}"/>
+    <hyperlink ref="D62" r:id="rId13" xr:uid="{CC2007A5-669B-44E4-9DEB-13A27D82549D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
